--- a/data_year/zb/建筑业/建筑业企业负债及所有者权益.xlsx
+++ b/data_year/zb/建筑业/建筑业企业负债及所有者权益.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,338 +458,204 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4233.15169</v>
+        <v>24872.5952</v>
       </c>
       <c r="C2" t="n">
-        <v>9802.147870000001</v>
+        <v>47003.8686</v>
       </c>
       <c r="D2" t="n">
-        <v>10345.21688</v>
+        <v>50349.1708</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5633.78262</v>
+        <v>30264.78871</v>
       </c>
       <c r="C3" t="n">
-        <v>10743.90801</v>
+        <v>58833.66012</v>
       </c>
       <c r="D3" t="n">
-        <v>11333.83165</v>
+        <v>63595.06712</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7404.4267</v>
+        <v>36123.45204</v>
       </c>
       <c r="C4" t="n">
-        <v>12323.7647</v>
+        <v>68539.05628</v>
       </c>
       <c r="D4" t="n">
-        <v>12985.6808</v>
+        <v>75529.71696000001</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8549.479300000001</v>
+        <v>47913.33985</v>
       </c>
       <c r="C5" t="n">
-        <v>14181.2876</v>
+        <v>90525.66266</v>
       </c>
       <c r="D5" t="n">
-        <v>14992.4251</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>100459.18004</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7011.35495</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11122.53562</v>
+        <v>54195.92887</v>
       </c>
       <c r="C6" t="n">
-        <v>19336.4293</v>
+        <v>98744.24892</v>
       </c>
       <c r="D6" t="n">
-        <v>20362.73962</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>110114.37228</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7007.55063</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12633.18601</v>
+        <v>60946.43791</v>
       </c>
       <c r="C7" t="n">
-        <v>22228.27199</v>
+        <v>109658.47806</v>
       </c>
       <c r="D7" t="n">
-        <v>23375.57509</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>121505.27937</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11846.80131</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14862.90732</v>
+        <v>67726.45039</v>
       </c>
       <c r="C8" t="n">
-        <v>26624.86593</v>
+        <v>122841.24935</v>
       </c>
       <c r="D8" t="n">
-        <v>28166.3663</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>136900.6907</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14059.44135</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17676.93171</v>
+        <v>74761.86724000001</v>
       </c>
       <c r="C9" t="n">
-        <v>32217.57528</v>
+        <v>141757.74955</v>
       </c>
       <c r="D9" t="n">
-        <v>34034.9799</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>159218.09563</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11647.17383</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21248.69925</v>
+        <v>80154.78904</v>
       </c>
       <c r="C10" t="n">
-        <v>38396.10956</v>
+        <v>159024.95319</v>
       </c>
       <c r="D10" t="n">
-        <v>40915.6885</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>176472.89486</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13190.21102</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24872.5952</v>
+        <v>85100.23762</v>
       </c>
       <c r="C11" t="n">
-        <v>47003.8686</v>
+        <v>178466.9915</v>
       </c>
       <c r="D11" t="n">
-        <v>50349.1708</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>197934.67822</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15482.42515</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30264.78871</v>
+        <v>90528.51068000001</v>
       </c>
       <c r="C12" t="n">
-        <v>58833.66012</v>
+        <v>200126.51499</v>
       </c>
       <c r="D12" t="n">
-        <v>63595.06712</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36123.45204</v>
-      </c>
-      <c r="C13" t="n">
-        <v>68539.05628</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75529.71696000001</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>47913.33985</v>
-      </c>
-      <c r="C14" t="n">
-        <v>90525.66266</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100459.18004</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7011.35495</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>54195.92887</v>
-      </c>
-      <c r="C15" t="n">
-        <v>98744.24892</v>
-      </c>
-      <c r="D15" t="n">
-        <v>110114.37228</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7007.55063</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>60946.43791</v>
-      </c>
-      <c r="C16" t="n">
-        <v>109658.47806</v>
-      </c>
-      <c r="D16" t="n">
-        <v>121505.27937</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11846.80131</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>67726.45039</v>
-      </c>
-      <c r="C17" t="n">
-        <v>122841.24935</v>
-      </c>
-      <c r="D17" t="n">
-        <v>136900.6907</v>
-      </c>
-      <c r="E17" t="n">
-        <v>14059.44135</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>74761.86724000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>141757.74955</v>
-      </c>
-      <c r="D18" t="n">
-        <v>159218.09563</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11647.17383</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>80154.78904</v>
-      </c>
-      <c r="C19" t="n">
-        <v>159024.95319</v>
-      </c>
-      <c r="D19" t="n">
-        <v>176472.89486</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13190.21102</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>85100.23762</v>
-      </c>
-      <c r="C20" t="n">
-        <v>178466.9915</v>
-      </c>
-      <c r="D20" t="n">
-        <v>197934.67822</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15482.42515</v>
+        <v>220767.25259</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16294.52733</v>
       </c>
     </row>
   </sheetData>
